--- a/biology/Zoologie/Driloleirus_macelfreshi/Driloleirus_macelfreshi.xlsx
+++ b/biology/Zoologie/Driloleirus_macelfreshi/Driloleirus_macelfreshi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ver de terre géant de l'Oregon (Driloleirus macelfreshi), de la famille des Megascolecidae, est une des espèces les plus grandes de vers de terre d'Amérique. Sa taille est d'environ 60 cm de long en extension moyenne. Son aire de répartition est limitée à la vallée de Willamette et à quelques autres régions de l'Oregon, aux États-Unis.
 L'espèce a été découverte dans la région de Salem et décrite par Smith en 1937.
